--- a/ISKG建模抽取相关文件/config_v2.3.1.xlsx
+++ b/ISKG建模抽取相关文件/config_v2.3.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxabc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxabc\Desktop\ISKG\ISKG建模抽取相关文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91594448-8455-481D-93DE-00EF02F37A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6398A4-35A6-4390-9334-4EB5E2D7A5A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-156" yWindow="16080" windowWidth="29040" windowHeight="15840" tabRatio="878" activeTab="2" xr2:uid="{D5F56FF6-DD6F-4CA4-B3DF-D89414C03031}"/>
   </bookViews>
@@ -18,22 +18,17 @@
     <sheet name="关系表" sheetId="2" r:id="rId3"/>
     <sheet name="主外键对应表" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="227">
   <si>
     <t>数据库表/属性</t>
   </si>
@@ -1161,6 +1156,10 @@
 姓名，
 服务能力,
 级别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt_intesrv_TyDevice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2016,9 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53994BDE-D328-4857-BE5F-1B5860FD29FA}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B22" sqref="B22"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3091,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0769E-3859-4261-A441-B114057EF8AE}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3285,7 +3284,7 @@
         <v>102</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3302,7 +3301,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3368,7 +3367,7 @@
         <v>106</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/ISKG建模抽取相关文件/config_v2.3.1.xlsx
+++ b/ISKG建模抽取相关文件/config_v2.3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxabc\Desktop\ISKG\ISKG建模抽取相关文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6398A4-35A6-4390-9334-4EB5E2D7A5A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E20321-685E-444B-B049-B444CECE0DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-156" yWindow="16080" windowWidth="29040" windowHeight="15840" tabRatio="878" activeTab="2" xr2:uid="{D5F56FF6-DD6F-4CA4-B3DF-D89414C03031}"/>
+    <workbookView minimized="1" xWindow="-156" yWindow="16080" windowWidth="29040" windowHeight="15840" tabRatio="878" firstSheet="1" activeTab="1" xr2:uid="{D5F56FF6-DD6F-4CA4-B3DF-D89414C03031}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -2015,9 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53994BDE-D328-4857-BE5F-1B5860FD29FA}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3090,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0769E-3859-4261-A441-B114057EF8AE}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4119,7 +4119,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
